--- a/data/tower_count/tower_count_2019.xlsx
+++ b/data/tower_count/tower_count_2019.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IslandRs\Desktop\GDI 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejgna\Documents\project-eleanor-and-wriley\data\tower_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1CFC1E-EF07-4B53-A7EB-FFD29928F47D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70290B6A-C863-4CB9-BDFE-0F8133139A1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="1950" windowWidth="24585" windowHeight="13650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>HERG</t>
   </si>
@@ -53,9 +48,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>fog</t>
-  </si>
-  <si>
     <t>4 dcco, 5 atpu,2 canada geese,</t>
   </si>
   <si>
@@ -111,15 +103,6 @@
   </si>
   <si>
     <t>3 atpu 2 dcco 2 razo 5 gannets 2 seals</t>
-  </si>
-  <si>
-    <t>off island</t>
-  </si>
-  <si>
-    <t>Off Island</t>
-  </si>
-  <si>
-    <t>Fog</t>
   </si>
   <si>
     <t>3 RABI, 5 Tern, 1 COLO</t>
@@ -450,10 +433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,7 +485,7 @@
         <v>280</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -522,7 +505,7 @@
         <v>98</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -542,7 +525,7 @@
         <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -562,32 +545,44 @@
         <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43630</v>
+        <v>43631</v>
+      </c>
+      <c r="B6">
+        <v>560</v>
+      </c>
+      <c r="C6">
+        <v>25</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>114</v>
       </c>
       <c r="G6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43631</v>
+        <v>43632</v>
       </c>
       <c r="B7">
-        <v>560</v>
+        <v>593</v>
       </c>
       <c r="C7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D7">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
@@ -595,19 +590,19 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43632</v>
+        <v>43633</v>
       </c>
       <c r="B8">
-        <v>593</v>
+        <v>338</v>
       </c>
       <c r="C8">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -615,19 +610,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43633</v>
+        <v>43634</v>
       </c>
       <c r="B9">
-        <v>338</v>
+        <v>413</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
@@ -635,22 +633,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43634</v>
+        <v>43638</v>
       </c>
       <c r="B10">
-        <v>413</v>
+        <v>371</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -658,562 +656,444 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43635</v>
+        <v>43639</v>
+      </c>
+      <c r="B11">
+        <v>380</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>107</v>
+      </c>
+      <c r="E11">
+        <v>78</v>
+      </c>
+      <c r="F11">
+        <v>107</v>
       </c>
       <c r="G11" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43636</v>
+        <v>43640</v>
+      </c>
+      <c r="B12">
+        <v>390</v>
+      </c>
+      <c r="C12">
+        <v>25</v>
+      </c>
+      <c r="D12">
+        <v>140</v>
+      </c>
+      <c r="E12">
+        <v>79</v>
+      </c>
+      <c r="F12">
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43637</v>
+        <v>43641</v>
+      </c>
+      <c r="B13">
+        <v>455</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+      <c r="E13">
+        <v>46</v>
+      </c>
+      <c r="F13">
+        <v>150</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43638</v>
+        <v>43643</v>
       </c>
       <c r="B14">
-        <v>371</v>
+        <v>516</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D14">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="F14">
-        <v>179</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
+        <v>85</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43639</v>
+        <v>43645</v>
       </c>
       <c r="B15">
-        <v>380</v>
+        <v>573</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D15">
-        <v>107</v>
+        <v>31</v>
       </c>
       <c r="E15">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43640</v>
+        <v>43646</v>
       </c>
       <c r="B16">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="C16">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>21</v>
+      </c>
+      <c r="F16">
+        <v>109</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B17">
+        <v>421</v>
+      </c>
+      <c r="C17">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>57</v>
+      </c>
+      <c r="E17">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43648</v>
+      </c>
+      <c r="B18">
+        <v>517</v>
+      </c>
+      <c r="C18">
+        <v>28</v>
+      </c>
+      <c r="D18">
+        <v>45</v>
+      </c>
+      <c r="E18">
         <v>25</v>
       </c>
-      <c r="D16">
-        <v>140</v>
-      </c>
-      <c r="E16">
-        <v>79</v>
-      </c>
-      <c r="F16">
-        <v>140</v>
-      </c>
-      <c r="G16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="F18">
+        <v>204</v>
+      </c>
+      <c r="G18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43649</v>
+      </c>
+      <c r="B19">
+        <v>422</v>
+      </c>
+      <c r="C19">
+        <v>26</v>
+      </c>
+      <c r="D19">
+        <v>38</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>185</v>
+      </c>
+      <c r="G19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43653</v>
+      </c>
+      <c r="B20">
+        <v>425</v>
+      </c>
+      <c r="C20">
+        <v>35</v>
+      </c>
+      <c r="D20">
+        <v>108</v>
+      </c>
+      <c r="E20">
+        <v>13</v>
+      </c>
+      <c r="F20">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43654</v>
+      </c>
+      <c r="B21">
+        <v>452</v>
+      </c>
+      <c r="C21">
+        <v>32</v>
+      </c>
+      <c r="D21">
+        <v>170</v>
+      </c>
+      <c r="E21">
+        <v>11</v>
+      </c>
+      <c r="F21">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43655</v>
+      </c>
+      <c r="B22">
+        <v>516</v>
+      </c>
+      <c r="C22">
+        <v>35</v>
+      </c>
+      <c r="D22">
+        <v>153</v>
+      </c>
+      <c r="E22">
+        <v>13</v>
+      </c>
+      <c r="F22">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43656</v>
+      </c>
+      <c r="B23">
+        <v>508</v>
+      </c>
+      <c r="C23">
+        <v>44</v>
+      </c>
+      <c r="D23">
+        <v>133</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43657</v>
+      </c>
+      <c r="B24">
+        <v>466</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>104</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43660</v>
+      </c>
+      <c r="B25">
+        <v>530</v>
+      </c>
+      <c r="C25">
+        <v>42</v>
+      </c>
+      <c r="D25">
+        <v>135</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43661</v>
+      </c>
+      <c r="B26">
+        <v>440</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>97</v>
+      </c>
+      <c r="E26">
+        <v>49</v>
+      </c>
+      <c r="F26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43662</v>
+      </c>
+      <c r="B27">
+        <v>455</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>136</v>
+      </c>
+      <c r="E27">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43663</v>
+      </c>
+      <c r="B28">
+        <v>375</v>
+      </c>
+      <c r="C28">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>105</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43664</v>
+      </c>
+      <c r="B29">
+        <v>375</v>
+      </c>
+      <c r="C29">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>43641</v>
-      </c>
-      <c r="B17">
-        <v>455</v>
-      </c>
-      <c r="C17">
-        <v>35</v>
-      </c>
-      <c r="D17">
-        <v>150</v>
-      </c>
-      <c r="E17">
-        <v>46</v>
-      </c>
-      <c r="F17">
-        <v>150</v>
-      </c>
-      <c r="G17" t="s">
-        <v>19</v>
-      </c>
-      <c r="H17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>43642</v>
-      </c>
-      <c r="G18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>43643</v>
-      </c>
-      <c r="B19">
-        <v>516</v>
-      </c>
-      <c r="C19">
-        <v>33</v>
-      </c>
-      <c r="D19">
-        <v>32</v>
-      </c>
-      <c r="E19">
-        <v>21</v>
-      </c>
-      <c r="F19">
-        <v>85</v>
-      </c>
-      <c r="H19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>43644</v>
-      </c>
-      <c r="G20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>43645</v>
-      </c>
-      <c r="B21">
-        <v>573</v>
-      </c>
-      <c r="C21">
-        <v>33</v>
-      </c>
-      <c r="D21">
-        <v>31</v>
-      </c>
-      <c r="E21">
-        <v>30</v>
-      </c>
-      <c r="F21">
-        <v>162</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>43646</v>
-      </c>
-      <c r="B22">
-        <v>429</v>
-      </c>
-      <c r="C22">
-        <v>27</v>
-      </c>
-      <c r="D22">
+      <c r="D29">
+        <v>117</v>
+      </c>
+      <c r="E29">
+        <v>41</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43665</v>
+      </c>
+      <c r="B30">
+        <v>445</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>174</v>
+      </c>
+      <c r="E30">
         <v>36</v>
       </c>
-      <c r="E22">
-        <v>21</v>
-      </c>
-      <c r="F22">
-        <v>109</v>
-      </c>
-      <c r="G22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>43647</v>
-      </c>
-      <c r="B23">
-        <v>421</v>
-      </c>
-      <c r="C23">
-        <v>30</v>
-      </c>
-      <c r="D23">
-        <v>57</v>
-      </c>
-      <c r="E23">
-        <v>31</v>
-      </c>
-      <c r="F23">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>43648</v>
-      </c>
-      <c r="B24">
-        <v>517</v>
-      </c>
-      <c r="C24">
-        <v>28</v>
-      </c>
-      <c r="D24">
-        <v>45</v>
-      </c>
-      <c r="E24">
-        <v>25</v>
-      </c>
-      <c r="F24">
-        <v>204</v>
-      </c>
-      <c r="G24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>43649</v>
-      </c>
-      <c r="B25">
-        <v>422</v>
-      </c>
-      <c r="C25">
-        <v>26</v>
-      </c>
-      <c r="D25">
-        <v>38</v>
-      </c>
-      <c r="E25">
-        <v>19</v>
-      </c>
-      <c r="F25">
-        <v>185</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>43650</v>
-      </c>
-      <c r="G26" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>43651</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>43652</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F30">
+        <v>8</v>
+      </c>
+      <c r="G30" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>43653</v>
-      </c>
-      <c r="B29">
-        <v>425</v>
-      </c>
-      <c r="C29">
-        <v>35</v>
-      </c>
-      <c r="D29">
-        <v>108</v>
-      </c>
-      <c r="E29">
-        <v>13</v>
-      </c>
-      <c r="F29">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>43654</v>
-      </c>
-      <c r="B30">
-        <v>452</v>
-      </c>
-      <c r="C30">
-        <v>32</v>
-      </c>
-      <c r="D30">
-        <v>170</v>
-      </c>
-      <c r="E30">
-        <v>11</v>
-      </c>
-      <c r="F30">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>43655</v>
-      </c>
-      <c r="B31">
-        <v>516</v>
-      </c>
-      <c r="C31">
-        <v>35</v>
-      </c>
-      <c r="D31">
-        <v>153</v>
-      </c>
-      <c r="E31">
-        <v>13</v>
-      </c>
-      <c r="F31">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43656</v>
-      </c>
-      <c r="B32">
-        <v>508</v>
-      </c>
-      <c r="C32">
-        <v>44</v>
-      </c>
-      <c r="D32">
-        <v>133</v>
-      </c>
-      <c r="E32">
-        <v>7</v>
-      </c>
-      <c r="F32">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43657</v>
-      </c>
-      <c r="B33">
-        <v>466</v>
-      </c>
-      <c r="C33">
-        <v>36</v>
-      </c>
-      <c r="D33">
-        <v>104</v>
-      </c>
-      <c r="E33">
-        <v>6</v>
-      </c>
-      <c r="F33">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43658</v>
-      </c>
-      <c r="G34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43659</v>
-      </c>
-      <c r="G35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43660</v>
-      </c>
-      <c r="B36">
-        <v>530</v>
-      </c>
-      <c r="C36">
-        <v>42</v>
-      </c>
-      <c r="D36">
-        <v>135</v>
-      </c>
-      <c r="E36">
-        <v>16</v>
-      </c>
-      <c r="F36">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43661</v>
-      </c>
-      <c r="B37">
-        <v>440</v>
-      </c>
-      <c r="C37">
-        <v>30</v>
-      </c>
-      <c r="D37">
-        <v>97</v>
-      </c>
-      <c r="E37">
-        <v>49</v>
-      </c>
-      <c r="F37">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43662</v>
-      </c>
-      <c r="B38">
-        <v>455</v>
-      </c>
-      <c r="C38">
-        <v>43</v>
-      </c>
-      <c r="D38">
-        <v>136</v>
-      </c>
-      <c r="E38">
-        <v>38</v>
-      </c>
-      <c r="F38">
-        <v>14</v>
-      </c>
-      <c r="G38" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43663</v>
-      </c>
-      <c r="B39">
-        <v>375</v>
-      </c>
-      <c r="C39">
-        <v>32</v>
-      </c>
-      <c r="D39">
-        <v>105</v>
-      </c>
-      <c r="E39">
-        <v>30</v>
-      </c>
-      <c r="F39">
-        <v>11</v>
-      </c>
-      <c r="G39" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43664</v>
-      </c>
-      <c r="B40">
-        <v>375</v>
-      </c>
-      <c r="C40">
-        <v>21</v>
-      </c>
-      <c r="D40">
-        <v>117</v>
-      </c>
-      <c r="E40">
-        <v>41</v>
-      </c>
-      <c r="F40">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43665</v>
-      </c>
-      <c r="B41">
-        <v>445</v>
-      </c>
-      <c r="C41">
-        <v>17</v>
-      </c>
-      <c r="D41">
-        <v>174</v>
-      </c>
-      <c r="E41">
-        <v>36</v>
-      </c>
-      <c r="F41">
-        <v>8</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43666</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>43668</v>
       </c>
     </row>
   </sheetData>
